--- a/excel/홍대.xlsx
+++ b/excel/홍대.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,64 +468,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>심야식당밤</t>
+          <t>토끼다이닝</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 독막로5길 5 2층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1375-2431</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>토끼다이닝</t>
+          <t>아톰술집</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 와우산로18길 6 2층 아톰술집</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:15에 라스트오더', '4시 15분에 라스트오더'], ['화', '17:00 - 05:00', '04:15 라스트오더'], ['수', '17:00 - 05:00', '04:15 라스트오더'], ['목', '17:00 - 05:00', '04:15 라스트오더'], ['금', '17:00 - 05:00', '04:15 라스트오더'], ['토', '17:00 - 05:00', '04:15 라스트오더'], ['일', '17:00 - 05:00', '04:15 라스트오더'], ['월', '17:00 - 05:00', '04:15 라스트오더'], ['- 휴무일없음으로 변경되었습니다']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1466-1718</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['- 에어컨 공사로 인해 이틀 쉬어갑니다 ㅠㅠ']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['- 에어컨 공사로 인해 이틀 쉬어갑니다 ㅠㅠ']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -756,64 +756,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>쿠시노주방</t>
+          <t>산울림1992</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '15:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['나혼자산다 450회, 22.06.17.', '2022년 6월 17일', ' 비빔파스타/조개탕/육전', '펼쳐보기'], [''], ['']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1417-0352</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>산울림1992</t>
+          <t>쿠시노주방</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['나혼자산다 450회, 22.06.17.', '2022년 6월 17일', ' 비빔파스타/조개탕/육전', '펼쳐보기'], [''], ['']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1417-0352</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 02:00'], ['월', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,19 +904,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1313-4083</t>
+          <t>02-336-1447</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>락소울윙</t>
+          <t>무채색</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,66 +926,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 26 2층</t>
+          <t>서울 마포구 동교로32길 19 3층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['매일', '15:00 - 24:00', '23:30 라스트오더']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '18:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['생방송투데이 3239회, 23.02.22.', '2023년 2월 22일', ' 수비드삼겹물수육']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1376-4268</t>
+          <t>0507-1354-4046</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>무채색</t>
+          <t>호맥 합정점</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 26 2층</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1376-4268</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>호맥 합정점</t>
+          <t>락소울윙</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>0507-1461-7630</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '15:00 - 24:00'], ['화', '15:00 - 24:00'], ['수', '15:00 - 24:00'], ['목', '15:00 - 24:00'], ['금', '15:00 - 01:00'], ['토', '15:00 - 01:00'], ['일', '15:00 - 24:00'], ['- 4/20 휴무입니다.']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '15:00 - 24:00'], ['수', '15:00 - 24:00'], ['목', '15:00 - 24:00'], ['금', '15:00 - 01:00'], ['토', '15:00 - 01:00'], ['일', '15:00 - 24:00'], ['월', '15:00 - 24:00'], ['- 4/20 휴무입니다.']]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1172,12 +1172,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>황소랑</t>
+          <t>썸잉 홍대점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>소고기구이</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>게포차 김앤김</t>
+          <t>형제상회</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로 100 1층 103호</t>
+          <t>서울 마포구 양화로6길 73 1층 4호 형제상회</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>02-336-6659</t>
+          <t>0507-1429-9299</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1246,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 73 1층 4호 형제상회</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1429-9299</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 와우산로17길 10 2F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00'], ['- 정부 방역지침으로 인한 영업시간 조정']]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1319-1675</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['- 명절/ 휴가 등 특이사항 휴무일은 인스타그램에 공지해요'], ['생방송투데이 3197회, 22.12.22.', '2022년 12월 22일', ' 일본식닭꼬치']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 명절/ 휴가 등 특이사항 휴무일은 인스타그램에 공지해요'], ['생방송투데이 3197회, 22.12.22.', '2022년 12월 22일', ' 일본식닭꼬치']]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1524,64 +1524,64 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>심야식당하스</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 19</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 01:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['일', '14:00 - 01:00'], ['월(7/17)', '제헌절14:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>070-8888-0198</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>낮달</t>
+          <t>심야식당하스</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 19</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>070-8888-0198</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['월', '16:00 - 01:00', '00:30 라스트오더'], ['화', '16:00 - 01:00', '00:30 라스트오더'], ['수', '16:00 - 01:00', '00:30 라스트오더'], ['목', '16:00 - 01:00', '00:30 라스트오더'], ['금', '16:00 - 02:30', '02:00 라스트오더'], ['토', '15:00 - 02:30', '02:00 라스트오더'], ['일', '15:30 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '16:00 - 01:00', '00:30 라스트오더'], ['수', '16:00 - 01:00', '00:30 라스트오더'], ['목', '16:00 - 01:00', '00:30 라스트오더'], ['금', '16:00 - 02:30', '02:00 라스트오더'], ['토', '15:00 - 02:30', '02:00 라스트오더'], ['일', '15:30 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>무채색 숲</t>
+          <t>벽돌포차 홍대점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1635,29 +1635,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
+          <t>서울 마포구 와우산로17길 5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['월', '18:00 - 03:00', '02:00 라스트오더'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['토', '18:00 - 05:00', '04:00 라스트오더'], ['일', '18:00 - 03:00', '02:00 라스트오더']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '18:00 - 06:00', '05:00 라스트오더'], ['토', '17:00 - 06:00', '05:00 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1377-4046</t>
+          <t>0507-1404-8881</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>벽돌포차 홍대점</t>
+          <t>무채색 숲</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1667,17 +1667,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로17길 5</t>
+          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '18:00 - 06:00', '05:00 라스트오더'], ['토', '17:00 - 06:00', '05:00 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['토', '18:00 - 05:00', '04:00 라스트오더'], ['일', '18:00 - 03:00', '02:00 라스트오더'], ['월', '18:00 - 03:00', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0507-1404-8881</t>
+          <t>0507-1377-4046</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['월', '17:00 - 23:00'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '16:00 - 23:00'], ['일', '16:00 - 23:00'], ['- 휴무는 인스타공지 ☆ 148_2seulseul']]</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '16:00 - 23:00'], ['일', '16:00 - 23:00'], ['월', '17:00 - 23:00'], ['- 휴무는 인스타공지 ☆ 148_2seulseul']]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>주섬주섬</t>
+          <t>가로수포차</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1726,34 +1726,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 36-12</t>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00'], ['수', '16:00 - 23:00'], ['목', '16:00 - 23:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 23:00'], ['- 월요일 휴무입니다']]</t>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '17:00 - 02:30']]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0507-1325-5230</t>
+          <t>010-7357-2551</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>심야식당밤</t>
+          <t>주섬주섬</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1768,19 +1768,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '16:00 - 23:00'], ['수', '16:00 - 23:00'], ['목', '16:00 - 23:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['- 월요일 휴무입니다']]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1325-5230</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>토끼다이닝</t>
+          <t>사람사는이야기442</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1790,189 +1790,189 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 와우산로21길 36-12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1325-5230</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>배터리88 홍대점</t>
+          <t>역전포장마차 홍대점</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로19길 6 1층</t>
+          <t>서울 마포구 양화로 183 지하1층</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '17:00 - 05:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '16:00 - 24:00'], ['수', '16:00 - 24:00'], ['목', '16:00 - 24:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 24:00'], ['월', '16:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1487-0883</t>
+          <t>0507-1376-3340</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>발리 슈퍼스토어</t>
+          <t>합정유리</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로19길 6 1층</t>
+          <t>서울 마포구 양화로 183 지하1층</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1487-0883</t>
+          <t>0507-1376-3340</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>서교주담 합정</t>
+          <t>밤말</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
+          <t>서울 마포구 동교로 220-5 1.5층</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>010-5656-9309</t>
+          <t>0507-1313-5446</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>배터리88 2호점 홍대입구역점</t>
+          <t>하나킨</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
+          <t>서울 마포구 동교로32길 8 1층</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 01:00'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>010-5656-9309</t>
+          <t>0507-1322-4213</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>붉은낙타</t>
+          <t>지하102호 2호점</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['- 에어컨 공사로 인해 이틀 쉬어갑니다 ㅠㅠ']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 04:00'], ['토', '15:00 - 04:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>070-4833-5965</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>썬키친</t>
+          <t>모양</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1982,125 +1982,125 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>맥주왕명주</t>
+          <t>하루</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 와우산로32길 31-8 1층</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>0507-1344-6512</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>쿠시노주방</t>
+          <t>만선호프 홍대점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 마포구 와우산로17길 15 1층</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '17:00 - 07:00', '06:00 라스트오더'], ['토', '17:00 - 07:00', '06:00 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>010-7245-0503</t>
+          <t>0507-1360-1803</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>산울림1992</t>
+          <t>별그리는바다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+          <t>서울 마포구 어울마당로5길 17 1층</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0507-1417-0352</t>
+          <t>0507-1361-4011</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>홍콩포차</t>
+          <t>세부인보드카</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2110,93 +2110,93 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>서울 마포구 서강로9길 60 산울림1992</t>
+          <t>서울 마포구 양화로6길 65 2층</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '15:00 - 03:00'], ['일', '15:00 - 03:00'], ['월(7/17)', '제헌절17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0507-1335-4002</t>
+          <t>02-322-3634</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>훈민정음 서울합정점</t>
+          <t>카시</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 21</t>
+          <t>서울 마포구 양화로6길 65 2층</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>02-336-1447</t>
+          <t>02-322-3634</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>상수주택</t>
+          <t>불나방</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 21</t>
+          <t>서울 마포구 와우산로29길 4-26</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>02-336-1447</t>
+          <t>0507-1476-2149</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>락소울윙</t>
+          <t>토끼다이닝</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2206,157 +2206,157 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 26 2층</t>
+          <t>서울 마포구 와우산로29길 4-26</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['매일', '15:00 - 24:00', '23:30 라스트오더']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0507-1376-4268</t>
+          <t>0507-1476-2149</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>무채색</t>
+          <t>아톰술집</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 26 2층</t>
+          <t>서울 마포구 와우산로18길 6 2층 아톰술집</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:15에 라스트오더', '4시 15분에 라스트오더'], ['화', '17:00 - 05:00', '04:15 라스트오더'], ['수', '17:00 - 05:00', '04:15 라스트오더'], ['목', '17:00 - 05:00', '04:15 라스트오더'], ['금', '17:00 - 05:00', '04:15 라스트오더'], ['토', '17:00 - 05:00', '04:15 라스트오더'], ['일', '17:00 - 05:00', '04:15 라스트오더'], ['월', '17:00 - 05:00', '04:15 라스트오더'], ['- 휴무일없음으로 변경되었습니다']]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0507-1376-4268</t>
+          <t>0507-1466-1718</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>호맥 합정점</t>
+          <t>배터리88 홍대점</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 와우산로19길 6 1층</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>0507-1487-0883</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>금호동매운닭발</t>
+          <t>발리 슈퍼스토어</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
+          <t>서울 마포구 와우산로19길 6 1층</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>02-333-7466</t>
+          <t>0507-1487-0883</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>지하102호 1호점</t>
+          <t>서교주담 합정</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>010-5656-9309</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>조선시대</t>
+          <t>배터리88 2호점 홍대입구역점</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2366,29 +2366,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>010-5656-9309</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>몽주방</t>
+          <t>붉은낙타</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2403,24 +2403,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 20 1층</t>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '16:00 - 02:30'], ['줄서는식당 37회, 22.10.10.', '2022년 10월 10일', ' 압력밥솥닭볶음탕/소고기다타키/창난젓크림치즈/통삼겹김치찜']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['- 에어컨 공사로 인해 이틀 쉬어갑니다 ㅠㅠ']]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0507-1364-7875</t>
+          <t>070-4833-5965</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>연술집</t>
+          <t>썬키친</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2430,157 +2430,157 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 36 2층 201호</t>
+          <t>서울 마포구 양화로6길 50 2층</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0507-1358-3675</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>황소랑</t>
+          <t>맥주왕명주</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>소고기구이</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 36 2층 201호</t>
+          <t>서울 마포구 양화로6길 50 2층</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '15:00 - 24:00'], ['화', '15:00 - 24:00'], ['수', '15:00 - 24:00'], ['목', '15:00 - 24:00'], ['금', '15:00 - 01:00'], ['토', '15:00 - 01:00'], ['일', '15:00 - 24:00'], ['- 4/20 휴무입니다.']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0507-1358-3675</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>게포차 김앤김</t>
+          <t>산울림1992</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로 100 1층 103호</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '15:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['나혼자산다 450회, 22.06.17.', '2022년 6월 17일', ' 비빔파스타/조개탕/육전', '펼쳐보기'], [''], ['']]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>02-336-6659</t>
+          <t>0507-1417-0352</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>깊은숲</t>
+          <t>쿠시노주방</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['나혼자산다 450회, 22.06.17.', '2022년 6월 17일', ' 비빔파스타/조개탕/육전', '펼쳐보기'], [''], ['']]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1417-0352</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>홍대공감</t>
+          <t>홍콩포차</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['화', '16:00 - 01:00', '23:30 라스트오더'], ['수', '16:00 - 01:00', '23:30 라스트오더'], ['목', '16:00 - 01:00', '23:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '15:00 - 02:00', '00:30 라스트오더'], ['일', '16:00 - 01:00', '23:30 라스트오더'], ['월', '16:00 - 01:00', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>010-7245-0503</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>동동포차DDPC</t>
+          <t>훈민정음 서울합정점</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2590,29 +2590,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
+          <t>서울 마포구 독막로7길 21</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 02:00'], ['월', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>02-336-0358</t>
+          <t>02-336-1447</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>개화기요정</t>
+          <t>상수주택</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2622,221 +2622,221 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
+          <t>서울 마포구 독막로7길 21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>02-336-0358</t>
+          <t>02-336-1447</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>심야식당밤</t>
+          <t>무채색</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 동교로32길 19 3층</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '18:00 - 24:00', '23:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더'], ['생방송투데이 3239회, 23.02.22.', '2023년 2월 22일', ' 수비드삼겹물수육']]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1354-4046</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>우규</t>
+          <t>호맥 합정점</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '16:30 - 01:30', '00:30 라스트오더'], ['수', '16:30 - 01:30', '00:30 라스트오더'], ['목', '16:30 - 01:30', '00:30 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '14:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 01:30', '00:30 라스트오더'], ['월', '16:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>사카바 토리야</t>
+          <t>락소울윙</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 38 2층</t>
+          <t>서울 마포구 독막로5길 5 대웅빌딩 1층 호맥</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['- 명절/ 휴가 등 특이사항 휴무일은 인스타그램에 공지해요'], ['생방송투데이 3197회, 22.12.22.', '2022년 12월 22일', ' 일본식닭꼬치']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0507-1353-4741</t>
+          <t>02-333-7466</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>서플라이디팟</t>
+          <t>금호동매운닭발</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 4 2층</t>
+          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '17:00 - 04:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>010-9311-2431</t>
+          <t>0507-1461-7630</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>슈퍼룸방구</t>
+          <t>지하102호 1호점</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 4 2층</t>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>010-9311-2431</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>심야식당하스</t>
+          <t>조선시대</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 19</t>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>070-8888-0198</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>낮달</t>
+          <t>몽주방</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2846,29 +2846,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 19</t>
+          <t>서울 마포구 독막로7길 20 1층</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '16:00 - 02:30'], ['줄서는식당 37회, 22.10.10.', '2022년 10월 10일', ' 압력밥솥닭볶음탕/소고기다타키/창난젓크림치즈/통삼겹김치찜']]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>070-8888-0198</t>
+          <t>0507-1364-7875</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>몽주막</t>
+          <t>연술집</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2878,29 +2878,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
+          <t>서울 마포구 연희로1길 36 2층 201호</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['월', '16:00 - 01:00', '00:30 라스트오더'], ['화', '16:00 - 01:00', '00:30 라스트오더'], ['수', '16:00 - 01:00', '00:30 라스트오더'], ['목', '16:00 - 01:00', '00:30 라스트오더'], ['금', '16:00 - 02:30', '02:00 라스트오더'], ['토', '15:00 - 02:30', '02:00 라스트오더'], ['일', '15:30 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '15:00 - 24:00'], ['수', '15:00 - 24:00'], ['목', '15:00 - 24:00'], ['금', '15:00 - 01:00'], ['토', '15:00 - 01:00'], ['일', '15:00 - 24:00'], ['월', '15:00 - 24:00'], ['- 4/20 휴무입니다.']]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0507-1353-3844</t>
+          <t>0507-1358-3675</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>무채색 숲</t>
+          <t>썸잉 홍대점</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2910,29 +2910,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
+          <t>서울 마포구 연희로1길 36 2층 201호</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['월', '18:00 - 03:00', '02:00 라스트오더'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['토', '18:00 - 05:00', '04:00 라스트오더'], ['일', '18:00 - 03:00', '02:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0507-1377-4046</t>
+          <t>0507-1358-3675</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>벽돌포차 홍대점</t>
+          <t>형제상회</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2942,93 +2942,93 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로17길 5</t>
+          <t>서울 마포구 양화로6길 73 1층 4호 형제상회</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '18:00 - 06:00', '05:00 라스트오더'], ['토', '17:00 - 06:00', '05:00 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0507-1404-8881</t>
+          <t>0507-1429-9299</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>슬슬</t>
+          <t>깊은숲</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 23</t>
+          <t>서울 마포구 양화로6길 73 1층 4호 형제상회</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['월', '17:00 - 23:00'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '16:00 - 23:00'], ['일', '16:00 - 23:00'], ['- 휴무는 인스타공지 ☆ 148_2seulseul']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>010-3907-0093</t>
+          <t>0507-1429-9299</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>주섬주섬</t>
+          <t>홍대공감</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 36-12</t>
+          <t>서울 마포구 와우산로17길 10 2F</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00'], ['수', '16:00 - 23:00'], ['목', '16:00 - 23:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 23:00'], ['- 월요일 휴무입니다']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00'], ['- 정부 방역지침으로 인한 영업시간 조정']]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0507-1325-5230</t>
+          <t>0507-1319-1675</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>가로수포차</t>
+          <t>동동포차DDPC</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3038,253 +3038,253 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 36-12</t>
+          <t>서울 마포구 독막로3길 30 1층</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0507-1325-5230</t>
+          <t>02-336-0358</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>역전포장마차 홍대점</t>
+          <t>개화기요정</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로 183 지하1층</t>
+          <t>서울 마포구 독막로3길 30 1층</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0507-1376-3340</t>
+          <t>02-336-0358</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>합정유리</t>
+          <t>심야식당밤</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로 183 지하1층</t>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '16:00 - 24:00'], ['화', '16:00 - 24:00'], ['수', '16:00 - 24:00'], ['목', '16:00 - 24:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 24:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1383-3321</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>사람사는이야기442</t>
+          <t>우규</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 52 사사이</t>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0507-1337-0442</t>
+          <t>0507-1383-3321</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>밤말</t>
+          <t>사카바 토리야</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 52 사사이</t>
+          <t>서울 마포구 독막로3길 38 2층</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['월', '16:30 - 05:00', '04:00 라스트오더'], ['화', '16:30 - 05:00', '04:00 라스트오더'], ['수', '16:30 - 05:00', '04:00 라스트오더'], ['목', '16:30 - 05:00', '04:00 라스트오더'], ['금', '16:30 - 05:00', '04:00 라스트오더'], ['토', '15:30 - 05:00', '04:00 라스트오더'], ['일', '15:30 - 05:00', '04:00 라스트오더']]</t>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 명절/ 휴가 등 특이사항 휴무일은 인스타그램에 공지해요'], ['생방송투데이 3197회, 22.12.22.', '2022년 12월 22일', ' 일본식닭꼬치']]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0507-1337-0442</t>
+          <t>0507-1353-4741</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>모양</t>
+          <t>서플라이디팟</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 24-9 1층</t>
+          <t>서울 마포구 잔다리로 4 2층</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '17:00 - 24:00', '23:30 라스트오더'], ['화', '17:00 - 24:00', '23:30 라스트오더'], ['수', '17:00 - 24:00', '23:30 라스트오더'], ['목', '17:00 - 24:00', '23:30 라스트오더'], ['금', '17:00 - 01:00', '00:30 라스트오더'], ['토', '17:00 - 01:00', '00:30 라스트오더'], ['일', '17:00 - 24:00', '23:30 라스트오더'], ['- 새해첫날은 쉽니다 :)'], ['생방송투데이 3126회, 22.08.31.', '2022년 8월 31일', ' 불맛한우힘줄볶음']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '17:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0507-1383-1032</t>
+          <t>010-9311-2431</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>하나킨</t>
+          <t>슈퍼룸방구</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 8 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 01:00']]</t>
+          <t>[['24시간 영업', '연중무휴', '연중무휴'], ['매일', '00:00 - 24:00', '09:00 - 16:00 브레이크타임']]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0507-1322-4213</t>
+          <t>010-4269-3461</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>하루</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로32길 31-8 1층</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['일', '14:00 - 01:00'], ['월(7/17)', '제헌절14:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0507-1344-6512</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>지하102호 2호점</t>
+          <t>심야식당하스</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3294,66 +3294,66 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 39 1층</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 04:00'], ['토', '15:00 - 04:00'], ['일', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0507-1388-8648</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>만선호프 홍대점</t>
+          <t>몽주막</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 39 1층</t>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '16:00 - 01:00', '00:30 라스트오더'], ['수', '16:00 - 01:00', '00:30 라스트오더'], ['목', '16:00 - 01:00', '00:30 라스트오더'], ['금', '16:00 - 02:30', '02:00 라스트오더'], ['토', '15:00 - 02:30', '02:00 라스트오더'], ['일', '15:30 - 01:00', '00:30 라스트오더'], ['월', '16:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0507-1388-8648</t>
+          <t>0507-1353-3844</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>별그리는바다</t>
+          <t>벽돌포차 홍대점</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3363,24 +3363,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 17 1층</t>
+          <t>서울 마포구 와우산로17길 5</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00'], ['일', '17:00 - 03:00']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '18:00 - 06:00', '05:00 라스트오더'], ['토', '17:00 - 06:00', '05:00 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0507-1361-4011</t>
+          <t>0507-1404-8881</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>철판집</t>
+          <t>무채색 숲</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3395,29 +3395,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 24-11 1층 철판집</t>
+          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['월', '17:00 - 01:30', '00:30 라스트오더'], ['화', '17:00 - 01:30', '00:30 라스트오더'], ['수', '17:00 - 01:30', '00:30 라스트오더'], ['목', '17:00 - 01:30', '00:30 라스트오더'], ['금', '17:00 - 02:30', '01:30 라스트오더'], ['토', '17:00 - 02:30', '01:30 라스트오더'], ['일', '17:00 - 01:30', '00:30 라스트오더'], ['- 2월27일 월요일 임시휴무입니다'], ['신상출시편스토랑 18회, 20.02.28.', '2020년 2월 28일', ' 살치살']]</t>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 03:00', '02:00 라스트오더'], ['토', '18:00 - 05:00', '04:00 라스트오더'], ['일', '18:00 - 03:00', '02:00 라스트오더'], ['월', '18:00 - 03:00', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0507-1483-9233</t>
+          <t>0507-1377-4046</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>아톰술집</t>
+          <t>슬슬</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3427,24 +3427,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로18길 6 2층 아톰술집</t>
+          <t>서울 마포구 연희로1길 23</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:15에 라스트오더', '4시 15분에 라스트오더'], ['월', '17:00 - 05:00', '04:15 라스트오더'], ['화', '17:00 - 05:00', '04:15 라스트오더'], ['수', '17:00 - 05:00', '04:15 라스트오더'], ['목', '17:00 - 05:00', '04:15 라스트오더'], ['금', '17:00 - 05:00', '04:15 라스트오더'], ['토', '17:00 - 05:00', '04:15 라스트오더'], ['일', '17:00 - 05:00', '04:15 라스트오더'], ['- 휴무일없음으로 변경되었습니다']]</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '16:00 - 23:00'], ['일', '16:00 - 23:00'], ['월', '17:00 - 23:00'], ['- 휴무는 인스타공지 ☆ 148_2seulseul']]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0507-1466-1718</t>
+          <t>010-3907-0093</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>이목</t>
+          <t>가로수포차</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3454,61 +3454,61 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '정기휴무 (매달 1, 3, 5번째 일요일)'], ['매달 1, 3, 5번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '17:00 - 02:30']]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>010-7357-2551</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>두꺼비숙성횟집 홍대본점</t>
+          <t>주섬주섬</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 와우산로21길 36-12</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '16:00 - 23:00'], ['수', '16:00 - 23:00'], ['목', '16:00 - 23:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 23:00'], ['월', '정기휴무 (매주 월요일)'], ['- 월요일 휴무입니다']]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>0507-1325-5230</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>펍차 아지트</t>
+          <t>사람사는이야기442</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3518,61 +3518,61 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 와우산로21길 36-12</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '정기휴무 (매달 1, 3, 5번째 일요일)'], ['매달 1, 3, 5번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>역전포장마차 홍대점</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 어울마당로5길 52 사사이</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '16:30 - 05:00', '04:00 라스트오더'], ['수', '16:30 - 05:00', '04:00 라스트오더'], ['목', '16:30 - 05:00', '04:00 라스트오더'], ['금', '16:30 - 05:00', '04:00 라스트오더'], ['토', '15:30 - 05:00', '04:00 라스트오더'], ['일', '15:30 - 05:00', '04:00 라스트오더'], ['월', '16:30 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>노리터</t>
+          <t>합정유리</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3582,61 +3582,61 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 양화로6길 99-11 2층</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '정기휴무 (매달 1, 3, 5번째 일요일)'], ['매달 1, 3, 5번째 일요일 정기 휴무']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '14:00 - 01:00', '00:00 라스트오더'], ['일', '14:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['- 매주화 / 매월 첫째주 월요일 휴무']]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>0507-1352-2195</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>술생술사</t>
+          <t>밤말</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 동교로 220-5 1.5층</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>0507-1313-5446</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>이자카야무세이</t>
+          <t>하나킨</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3646,221 +3646,221 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 17 2층</t>
+          <t>서울 마포구 동교로32길 8 1층</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '정기휴무 (매달 1, 3, 5번째 일요일)'], ['매달 1, 3, 5번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 01:00'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>02-6404-0101</t>
+          <t>0507-1322-4213</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>화담</t>
+          <t>지하102호 2호점</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 127-1</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0507-1325-2822</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>꿀벌</t>
+          <t>모양</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 11-3 1층 화담</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '16:30 - 01:00', '23:00 라스트오더'], ['화', '16:30 - 01:00', '23:00 라스트오더'], ['수', '16:30 - 01:00', '23:00 라스트오더'], ['목', '16:30 - 01:00', '23:00 라스트오더'], ['금', '16:30 - 03:00', '01:00 라스트오더'], ['토', '16:30 - 03:00', '01:00 라스트오더'], ['일', '16:30 - 01:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 04:00'], ['토', '15:00 - 04:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0507-1325-2822</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>계담다</t>
+          <t>하루</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로32길 31-8 1층</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1344-6512</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>바코포차</t>
+          <t>만선호프 홍대점</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로17길 15 1층</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '17:00 - 05:00', '04:00 라스트오더'], ['수', '17:00 - 05:00', '04:00 라스트오더'], ['목', '17:00 - 05:00', '04:00 라스트오더'], ['금', '17:00 - 07:00', '06:00 라스트오더'], ['토', '17:00 - 07:00', '06:00 라스트오더'], ['일', '17:00 - 05:00', '04:00 라스트오더'], ['월', '17:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1360-1803</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>예쁜술집예술</t>
+          <t>별그리는바다</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 어울마당로5길 17 1층</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1361-4011</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>홍옥 상수점</t>
+          <t>세부인보드카</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 양화로6길 65 2층</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '15:00 - 03:00'], ['일', '15:00 - 03:00'], ['월(7/17)', '제헌절17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-322-3634</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>무니</t>
+          <t>카시</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3870,61 +3870,61 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 양화로6길 65 2층</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-322-3634</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>7번방 룸포차</t>
+          <t>불나방</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로29길 4-26</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1476-2149</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>아니키</t>
+          <t>철판집</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3934,29 +3934,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로29길 4-26</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1476-2149</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>엄마바</t>
+          <t>이목</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3966,93 +3966,93 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로3길 17 2층</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '정기휴무 (매달 1, 3, 5번째 일요일)'], ['월', '11:30 - 24:00', '14:30 - 17:00 브레이크타임', '23:00 라스트오더'], ['매달 1, 3, 5번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-6404-0101</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>이자카야 연정</t>
+          <t>술생술사</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로3길 17 2층</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-6404-0101</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>너가술집사장 / 너가술사</t>
+          <t>88양자카야</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1336-2374</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>합정공감</t>
+          <t>아톰술집</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4062,93 +4062,93 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로3길 28 지층 88양자카야</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1336-2374</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>극락</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로9길 33 반지하 0.5</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1409-0716</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>정이포장마차</t>
+          <t>두꺼비숙성횟집 홍대본점</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 어울마당로 146-1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:30 - 02:30', '01:30 라스트오더'], ['수', '17:30 - 02:30', '01:30 라스트오더'], ['목', '17:30 - 02:30', '01:30 라스트오더'], ['금', '17:30 - 03:30', '02:30 라스트오더'], ['토', '17:30 - 03:30', '02:30 라스트오더'], ['일', '17:30 - 02:30', '01:30 라스트오더'], ['월', '17:30 - 02:30', '01:30 라스트오더'], ['- 금,토,공휴일 전일17:30~03:30까지 운영합니다']]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-336-5215</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>전주상회</t>
+          <t>펍차 아지트</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4158,29 +4158,29 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 어울마당로 146-1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-336-5215</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>초월집</t>
+          <t>노리터</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4190,29 +4190,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로7길 23 4층</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['- 월, 화요일 휴무일이 공휴일인 경우 정상영업 합니다!']]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>천하의문타로</t>
+          <t>이자카야무세이</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4222,66 +4222,66 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로7길 23 4층</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-333-8174</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>슈가레이</t>
+          <t>화담</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 어울마당로 127-1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '16:00 - 04:00'], ['일', '17:00 - 04:00'], ['월', '17:00 - 03:00'], ['- 연중무휴365일 쉬지않고 영업합니다']]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-333-8174</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>지하102호 3호점</t>
+          <t>계담다</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4308,12 +4308,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>돌포차 Dorrr</t>
+          <t>홍옥 상수점</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4340,71 +4340,71 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>원나잇</t>
+          <t>꿀벌</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 어울마당로 43 2층</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 05:00'], ['토', '12:00 - 05:00'], ['일', '12:00 - 22:30'], ['월', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1386-8849</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>오제키</t>
+          <t>아니키</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 어울마당로 43 2층</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1386-8849</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>그늘</t>
+          <t>예쁜술집예술</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4414,125 +4414,125 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로29바길 11 지층 1층 예쁜술집예술</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1377-7940</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>떡볶이상회</t>
+          <t>무니</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로29바길 11 지층 1층 예쁜술집예술</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1377-7940</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>수염</t>
+          <t>바코포차</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로3길 35 1층</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1368-1337</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>88노가리 연남하우스</t>
+          <t>7번방 룸포차</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로3길 35 1층</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1368-1337</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>시실리</t>
+          <t>엄마바</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4542,125 +4542,125 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 홍익로 3-3 2층 엄마바</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1472-0126</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>지하102호 5호점</t>
+          <t>슈가레이</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로 75 1층 , 지하1층</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '19:00 - 06:00'], ['토', '19:00 - 06:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>010-8279-1763</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>건어물녀</t>
+          <t>정이포장마차</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 홍익로5안길 24 1층 102호 정이</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월', '정기휴무 (매주 월요일)'], ['- 둘째 넷째주 월요일 휴무입니다.']]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1476-1286</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>작가 홍대본점</t>
+          <t>너가술집사장 / 너가술사</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 와우산로19길 19 . 2층</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '18:00 - 03:00'], ['수', '18:00 - 05:00'], ['목', '18:00 - 05:00'], ['금', '17:00 - 06:00'], ['토', '17:00 - 06:00'], ['일', '18:00 - 05:00'], ['월(7/17)', '제헌절17:00 - 06:00']]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1318-9046</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>추자로557</t>
+          <t>이자카야 연정</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4670,93 +4670,93 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 양화로23길 24 2층 일부</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '16:00 - 03:00'], ['일', '16:00 - 03:00'], ['월', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1370-9339</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>올드타운 홍대점</t>
+          <t>전주상회</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 양화로23길 24 2층 일부</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1370-9339</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>더파이브올스</t>
+          <t>합정공감</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 양화로6길 49 2F</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1423-4733</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>앵춘</t>
+          <t>초월집</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4766,93 +4766,93 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 독막로7길 45 2층 초월집</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-336-3328</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>세븐펍</t>
+          <t>천하의문타로</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 01:00', '00:00 라스트오더'], ['일', '18:00 - 01:00', '00:00 라스트오더'], ['월(7/17)', '휴무'], ['07/17-07/18 휴무']]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-336-3009</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>술82</t>
+          <t>오제키</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 월드컵북로4길 19 1층</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], [''], ['휴무일', '07/17-07/18']]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>02-336-3009</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>파리아저씨</t>
+          <t>원나잇</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4862,29 +4862,29 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:30 - 02:00'], ['수', '17:30 - 02:00'], ['목', '17:30 - 02:00'], ['금', '17:30 - 03:00'], ['토', '17:30 - 03:00'], ['일', '17:30 - 02:00'], ['월', '17:30 - 02:00']]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1426-0912</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>준지의아름다운하루 연남점</t>
+          <t>지하102호 3호점</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4894,93 +4894,93 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 홍익로3길 44 러쉬 홍대점 건물(호곡빌딩) 5층</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1426-0912</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>지하102호 4호점</t>
+          <t>건어물녀</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+          <t>서울 마포구 양화로21길 33</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['화', '14:00 - 04:00'], ['수', '14:00 - 04:00'], ['목', '14:00 - 04:00'], ['금', '14:00 - 05:00'], ['토', '14:00 - 05:00'], ['일', '14:00 - 04:00'], ['월', '14:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0507-1321-1881</t>
+          <t>0507-1406-3671</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>호요 홍대점</t>
+          <t>그늘</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 20-11 1층</t>
+          <t>서울 마포구 양화로21길 33</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 01:00', '23:50 라스트오더'], ['수', '16:30 - 01:00', '23:50 라스트오더'], ['목', '16:30 - 01:00', '23:50 라스트오더'], ['금', '16:30 - 01:00', '23:50 라스트오더'], ['토', '13:00 - 01:00', '23:50 라스트오더'], ['일', '13:00 - 23:50', '22:40 라스트오더']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0507-1471-0827</t>
+          <t>0507-1406-3671</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BLACK&amp;JACK</t>
+          <t>수염</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4990,29 +4990,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 와우산로29마길 21 1층</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 02:00'], ['월', '18:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>02-333-0979</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>아크틱</t>
+          <t>떡볶이상회</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 와우산로29마길 21 1층</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5037,14 +5037,14 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>02-333-0979</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>포킹94</t>
+          <t>88노가리 연남하우스</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5054,29 +5054,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 동교로36길 18 지하 1층, 1층, 2층</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월(7/17)', '제헌절17:00 - 03:00'], ['- 공휴일 전날은 새벽 3시까지 영업 합니다.']]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1371-5912</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>오이시 나베</t>
+          <t>시실리</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5086,93 +5086,93 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 성미산로 198</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1309-8117</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>뚜이연남</t>
+          <t>세븐펍</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 동교로 209-4 지하 1층</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1385-6177</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>호돌이 호프</t>
+          <t>추자로557</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 양화로8길 14</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:30 - 24:00'], ['수', '17:30 - 24:00'], ['목', '17:30 - 24:00'], ['금', '17:30 - 24:00'], ['토', '17:30 - 24:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 24:00']]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1355-5575</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>동백상회</t>
+          <t>돌포차 Dorrr</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5182,29 +5182,29 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 양화로8길 14</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1355-5575</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>타로야</t>
+          <t>올드타운 홍대점</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5214,29 +5214,29 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로3길 35 2층 올드타운</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '16:00 - 24:00', '22:30 라스트오더'], ['일', '16:00 - 24:00', '22:30 라스트오더'], ['월', '17:00 - 24:00', '22:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1434-7750</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>홍대 노가리 포차 홍노포</t>
+          <t>작가 홍대본점</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5246,29 +5246,29 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로3길 35 2층 올드타운</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1434-7750</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>요리하는도깨비오니</t>
+          <t>지하102호 5호점</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5278,61 +5278,61 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로3길 13 1층, 2층, 3층</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:30에 라스트오더', '5시 30분에 라스트오더'], ['매일', '14:00 - 06:00', '05:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1357-1025</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>술취한여행자</t>
+          <t>더파이브올스</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 와우산로29길 26-5 반지하</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['화', '18:00 - 01:00', '23:30 라스트오더'], ['수', '18:00 - 01:00', '23:30 라스트오더'], ['목', '18:00 - 01:00', '23:30 라스트오더'], ['금', '17:00 - 02:00', '00:30 라스트오더'], ['토', '17:00 - 02:00', '00:30 라스트오더'], ['일', '17:00 - 01:00', '23:30 라스트오더'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>02-322-3966</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>달리</t>
+          <t>아크틱</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5342,29 +5342,29 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 와우산로29길 26-5 반지하</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>02-322-3966</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>빼레</t>
+          <t>앵춘</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5374,253 +5374,253 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로 81</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1311-3281</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>홍맛술</t>
+          <t>극락</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로 81</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1311-3281</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>오맥</t>
+          <t>파리아저씨</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 홍익로5안길 42 세븐일레븐 옆</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '16:30 - 02:00'], ['수', '16:30 - 02:00'], ['목', '16:30 - 02:00'], ['금', '16:30 - 02:00'], ['토', '16:30 - 02:00'], ['일', '16:30 - 02:00'], ['월(7/17)', '제헌절17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1373-3311</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>레코드피자</t>
+          <t>준지의아름다운하루 연남점</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 홍익로5안길 42 세븐일레븐 옆</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1403-0710</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>홍대 달동네</t>
+          <t>지하102호 4호점</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로3길 29 지하1층</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '15:00 - 02:00', '01:00 라스트오더'], ['수', '15:00 - 02:00', '01:00 라스트오더'], ['목', '15:00 - 02:00', '01:00 라스트오더'], ['금', '15:00 - 04:00', '03:00 라스트오더'], ['토', '15:00 - 04:00', '03:00 라스트오더'], ['일', '15:00 - 02:00', '01:00 라스트오더'], ['월', '15:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1300-8648</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>곤밥</t>
+          <t>호요 홍대점</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 와우산로21길 20-11 1층</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:50에 라스트오더', '23시 50분에 라스트오더'], ['화', '16:30 - 01:00', '23:50 라스트오더'], ['수', '16:30 - 01:00', '23:50 라스트오더'], ['목', '16:30 - 01:00', '23:50 라스트오더'], ['금', '16:30 - 01:00', '23:50 라스트오더'], ['토', '13:00 - 01:00', '23:50 라스트오더'], ['일', '13:00 - 23:50', '22:40 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1471-0827</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>딤</t>
+          <t>술82</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 독막로3길 33-3 술82</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '16:00 - 05:00', '04:00 라스트오더'], ['수', '16:00 - 05:00', '04:00 라스트오더'], ['목', '16:00 - 05:00', '04:00 라스트오더'], ['금', '15:00 - 05:00', '04:00 라스트오더'], ['토', '15:00 - 05:00', '04:00 라스트오더'], ['일', '16:00 - 05:00', '04:00 라스트오더'], ['월', '16:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1303-9765</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>혼술아틀란티스</t>
+          <t>뚜이연남</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 동교로34길 11</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1376-0679</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>코르크</t>
+          <t>BLACK&amp;JACK</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5652,12 +5652,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>황포25</t>
+          <t>포킹94</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>난바다</t>
+          <t>오이시 나베</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5694,93 +5694,93 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 어울마당로 136-5 2층</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 03:00'], ['토', '13:00 - 04:00'], ['일', '16:00 - 02:00']]</t>
+          <t>[['영업 중', '23:50에 영업 종료', '23시 50분에 영업 종료'], ['화', '17:00 - 23:50'], ['수', '17:00 - 23:50'], ['목', '17:00 - 23:50'], ['금', '17:00 - 23:50'], ['토', '17:00 - 23:50'], ['일', '17:00 - 23:50'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1316-1365</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>우식궁</t>
+          <t>타로야</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29라길 11 1.5층</t>
+          <t>서울 마포구 어울마당로 136-5 2층</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:50에 영업 종료', '23시 50분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0507-1388-5010</t>
+          <t>0507-1316-1365</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>장미별장</t>
+          <t>혼술아틀란티스</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토', '17:30 - 01:00'], ['일', '17:30 - 24:00'], ['월', '17:30 - 00:30']]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1307-5241</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>모꼬지해산물</t>
+          <t>동백상회</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5790,61 +5790,61 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로29길 4-36 지층 우측 혼술아틀란티스</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1307-5241</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>플래시백</t>
+          <t>호돌이 호프</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 월드컵북로2길 80 브로스빌딩 1, 2, 3, 4, 5층</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '02:30에 라스트오더', '2시 30분에 라스트오더'], ['화', '17:00 - 03:00', '02:30 라스트오더'], ['수', '17:00 - 03:00', '02:30 라스트오더'], ['목', '17:00 - 03:00', '02:30 라스트오더'], ['금', '17:00 - 03:00', '02:30 라스트오더'], ['토', '17:00 - 03:00', '02:30 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월(7/17)', '제헌절17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1389-2487</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>수달산장</t>
+          <t>술취한여행자</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5854,29 +5854,29 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 어울마당로 136-6 1층</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 라스트오더', '3시 0분에 라스트오더'], ['화', '17:00 - 04:00', '03:00 라스트오더'], ['수', '17:00 - 04:00', '03:00 라스트오더'], ['목', '17:00 - 04:00', '03:00 라스트오더'], ['금', '17:00 - 04:00', '03:00 라스트오더'], ['토', '17:00 - 04:00', '03:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 04:00', '03:00 라스트오더'], ['- 매주 월요일 휴무']]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1340-2480</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>이반추얼리</t>
+          <t>홍대 노가리 포차 홍노포</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5886,29 +5886,29 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 어울마당로 136-18 103호</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 03:00'], ['월(7/17)', '제헌절17:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1336-0481</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>이주방</t>
+          <t>빼레</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5918,29 +5918,29 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 어울마당로 136-18 103호</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1336-0481</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>쿠루미 1호점</t>
+          <t>요리하는도깨비오니</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5950,285 +5950,285 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 어울마당로 75 2층, 3층</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['화', '16:00 - 05:00', '04:00 라스트오더'], ['수', '16:00 - 05:00', '04:00 라스트오더'], ['목', '16:00 - 05:00', '04:00 라스트오더'], ['금', '16:00 - 06:50', '05:50 라스트오더'], ['토', '16:00 - 06:50', '05:50 라스트오더'], ['일', '16:00 - 05:00', '04:00 라스트오더'], ['월', '16:00 - 05:00', '04:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>070-4384-1114</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>흥에취한범 홍대점</t>
+          <t>오맥</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로21길 34 2층</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '17:00 - 02:00', '01:30 라스트오더'], ['일(7/16)', '17:00 - 02:00'], ['월', '17:00 - 02:00', '01:30 라스트오더'], ['격주 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1388-7759</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>호쿤</t>
+          <t>달리</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 양화로6길 86 2층</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['화', '11:30 - 04:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '11:30 - 04:00'], ['금', '11:30 - 04:00'], ['토', '11:30 - 04:00'], ['일', '11:30 - 04:00'], ['월', '11:30 - 04:00'], ['2014테이스티로드 31회, 14.08.23.', '2014년 8월 23일', ' 명란덮밥/명란파스타']]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1381-4123</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>달빛소굴</t>
+          <t>홍대 달동네</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 양화로6길 86 2층</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기'], ['2014테이스티로드 31회, 14.08.23.', '2014년 8월 23일', ' 명란덮밥/명란파스타']]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1381-4123</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>키즈나</t>
+          <t>레코드피자</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로32길 40 1층 레코드피자</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '17:00 - 01:00', '00:30 라스트오더'], ['수', '17:00 - 01:00', '00:30 라스트오더'], ['목', '17:00 - 01:00', '00:30 라스트오더'], ['금', '17:00 - 01:00', '00:30 라스트오더'], ['토', '17:00 - 01:00', '00:30 라스트오더'], ['일', '17:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>010-5480-7007</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>킹콩포차</t>
+          <t>곤밥</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 토정로 105</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '16:00 - 24:00'], ['수', '16:00 - 24:00'], ['목', '16:00 - 24:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>02-336-5157</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>룡도</t>
+          <t>딤</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 토정로 105</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>02-336-5157</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>풍암정</t>
+          <t>코르크</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 양화로23길 34 2층</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1334-3167</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>참새방앗간</t>
+          <t>플래시백</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 양화로23길 34 2층</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1334-3167</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>서울주막 홍대점</t>
+          <t>홍맛술</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6238,61 +6238,61 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 잔다리로 11 1층</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 04:00'], ['월', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1341-9047</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>서교포차</t>
+          <t>난바다</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로17길 14 2층</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:30 라스트오더'], ['목', '17:00 - 23:00', '22:30 라스트오더'], ['금', '17:00 - 23:00', '22:30 라스트오더'], ['토', '13:00 - 21:30', '21:00 라스트오더'], ['일', '13:00 - 21:30', '21:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 주말은 런치/디너 100% 예약제 입니다!!']]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1309-7061</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>옥희 홍대점</t>
+          <t>황포25</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6302,29 +6302,29 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로17길 24-3 좌측동 1층</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '10:30에 영업 종료', '10시 30분에 영업 종료'], ['화', '17:00 - 10:30'], ['수', '17:00 - 10:30'], ['목', '17:00 - 10:30'], ['금', '17:00 - 10:30'], ['토', '17:00 - 10:30'], ['일', '17:00 - 10:30'], ['월', '17:00 - 10:30']]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>02-322-5103</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>바다포차 시실리</t>
+          <t>우식궁</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6334,29 +6334,29 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로17길 24-3 좌측동 1층</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '10:30에 영업 종료', '10시 30분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>02-322-5103</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>슈퍼방구 홍대점</t>
+          <t>장미별장</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6388,12 +6388,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>스탠딩박스</t>
+          <t>모꼬지해산물</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>해물,생선요리</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6420,71 +6420,71 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>히포포차</t>
+          <t>수달산장</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 와우산로37길 1 1층 / 1지층</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['매일', '15:00 - 24:00', '23:30 라스트오더']]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1328-2899</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>효봉포차</t>
+          <t>이주방</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 연희로 33 2층</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1373-3618</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>무명요리사</t>
+          <t>호쿤</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6494,93 +6494,93 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 연희로 33 2층</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1373-3618</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>헬로헬로 쑬</t>
+          <t>쿠루미 1호점</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로 65 1층</t>
+          <t>서울 마포구 동교로 242-13 2층</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[['영업 중', '07:00에 영업 종료', '7시 0분에 영업 종료'], ['매일', '17:00 - 07:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>02-322-9293</t>
+          <t>0507-1401-7315</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>금강산호프</t>
+          <t>이반추얼리</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 동교로 242-13 2층</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1401-7315</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>리미트</t>
+          <t>흥에취한범 홍대점</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6590,29 +6590,29 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 와우산로 67 지하1층, 지하2층</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '18:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1336-9586</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>미식가주택</t>
+          <t>옥희 홍대점</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6622,157 +6622,157 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 잔다리로 6 2층, 3층</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1375-9256</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>유림상회</t>
+          <t>서교포차</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 잔다리로 5 1층, 2층, 3층</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '04:00에 라스트오더', '4시 0분에 라스트오더'], ['매일', '17:00 - 05:00', '04:00 라스트오더'], ['- 연중무휴']]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1377-3012</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>금별맥주 홍대직영점</t>
+          <t>키즈나</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 와우산로29바길 6 지층</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 매달 첫번째 일요일 휴무입니다']]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1432-6676</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>요아케</t>
+          <t>풍암정</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 와우산로29바길 6 지층</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1432-6676</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>네포</t>
+          <t>킹콩포차</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 어울마당로 115-1</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['24시간 영업', '연중무휴', '연중무휴'], ['매일', '00:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>070-8875-1001</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>꿀뱅이</t>
+          <t>참새방앗간</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6782,29 +6782,29 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 어울마당로 115-1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['24시간 영업', '연중무휴', '연중무휴', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>070-8875-1001</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>노라바라룸술집</t>
+          <t>룡도</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6814,221 +6814,221 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 독막로3길 24-10 지1층 A호</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1346-5113</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>백해</t>
+          <t>서울주막 홍대점</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 와우산로 67 1~5층 서울주막</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['화', '18:00 - 03:00', '02:00 라스트오더'], ['수', '18:00 - 03:00', '02:00 라스트오더'], ['목', '18:00 - 03:00', '02:00 라스트오더'], ['금', '18:00 - 06:00', '05:00 라스트오더'], ['토', '18:00 - 06:00', '05:00 라스트오더'], ['일', '18:00 - 03:00', '02:00 라스트오더'], ['월', '18:00 - 03:00', '02:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1469-6077</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>차차밀로</t>
+          <t>슈퍼방구 홍대점</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 잔다리로 12 1층</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '09:00에 영업 종료', '에 영업 종료'], ['매일', '16:00 - 09:00']]</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1349-7402</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>모모키친</t>
+          <t>바다포차 시실리</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 잔다리로 12 1층</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '09:00에 영업 종료', '에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1349-7402</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>JASE</t>
+          <t>히포포차</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 독막로9길 43 2층</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '16:00 - 04:00'], ['목', '16:00 - 04:00'], ['금', '16:00 - 04:00'], ['토', '16:00 - 04:00'], ['일', '16:00 - 04:00'], ['월', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1443-0022</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>스트라이프바</t>
+          <t>효봉포차</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 와우산로18길 12</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '03:00에 라스트오더', '3시 0분에 라스트오더'], ['매일', '17:00 - 04:00', '03:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>익순</t>
+          <t>스탠딩박스</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>서울 마포구 성지길 18</t>
+          <t>서울 마포구 와우산로18길 12</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
+          <t>[['영업 중', '03:00에 라스트오더', '3시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>02-334-8120</t>
+          <t>0507-1341-4531</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>큐슈방</t>
+          <t>무명요리사</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7038,61 +7038,61 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 18 2층 201호</t>
+          <t>서울 마포구 동교로32길 3 1층 무명요리사</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '휴무'], ['접기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '17:00 - 05:00']]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0507-1320-1314</t>
+          <t>02-3144-3884</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>신조이자카야</t>
+          <t>달빛소굴</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 36 지1층 우측</t>
+          <t>서울 마포구 동교로32길 3 1층 무명요리사</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['월', '17:00 - 01:00', '23:30 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '23:30 라스트오더'], ['목', '17:00 - 01:00', '23:30 라스트오더'], ['금', '17:00 - 02:00', '00:30 라스트오더'], ['토', '17:00 - 02:00', '00:30 라스트오더'], ['일', '17:00 - 01:00', '23:30 라스트오더']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>02-3144-7110</t>
+          <t>02-3144-3884</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>미드나잇 키친 연남점</t>
+          <t>헬로헬로 쑬</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7102,61 +7102,61 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 와우산로29바길 12</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-334-3243</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>사쿠라테이엔 합정점</t>
+          <t>리미트</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 독막로15길 5 102호</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>0507-1364-2260</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>달빛부엌</t>
+          <t>미식가주택</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7166,29 +7166,29 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 와우산로 15-5 1층</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '18:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>0507-1329-9808</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>인사동노가리 홍대점</t>
+          <t>금강산호프</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7198,221 +7198,221 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 성지길 18</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 02:00'], ['매달 2번째 일요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-334-8120</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>주미담 홍대점</t>
+          <t>유림상회</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 성지길 18</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-334-8120</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>한잔하다</t>
+          <t>요아케</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 독막로15길 16 2층 요아케</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>0507-1444-8303</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>미나리</t>
+          <t>금별맥주 홍대직영점</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 독막로7길 63 ,1층</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
+          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료'], ['화', '15:00 - 04:30'], ['수', '15:00 - 04:30'], ['목', '15:00 - 04:30'], ['금', '15:00 - 04:30'], ['토', '15:00 - 04:30'], ['일', '15:00 - 04:30'], ['월', '15:00 - 04:30']]</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-333-2996</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>노래타운 세븐플로어 홍대점</t>
+          <t>모모키친</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 독막로7길 63 ,1층</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-333-2996</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>넨네</t>
+          <t>네포</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 독막로15길 3-11 1층</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '18:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>0507-1406-3412</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>어른이대공원</t>
+          <t>백해</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 월드컵북로2길 86 1층</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 01:00'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-332-3534</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>이끔</t>
+          <t>노라바라룸술집</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7422,61 +7422,61 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 월드컵북로2길 86 1층</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>02-332-3534</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>쿄식탁</t>
+          <t>꿀뱅이</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 5 1층</t>
+          <t>서울 마포구 동교로 212-5 1층</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>0507-1339-9633</t>
+          <t>0507-1316-2024</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>해달밥술</t>
+          <t>차차밀로</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7486,29 +7486,29 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 동교로 212-5 1층</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1316-2024</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>더뷰 합정</t>
+          <t>JASE</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7518,29 +7518,29 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 와우산로19길 6-11 2층</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00'], ['- 코로나 거리두기로 인해 영업시간이 단축되었습니다.']]</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1410-8220</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>자개장</t>
+          <t>한잔하다</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7550,61 +7550,61 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 동교로34길 9 2층</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1392-8655</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>장농속</t>
+          <t>스트라이프바</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 와우산로21길 19-11 지하1층</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00'], ['일', '19:00 - 01:00'], ['월(7/17)', '제헌절19:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1358-0219</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>주문포차</t>
+          <t>익순</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7614,157 +7614,157 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 양화진길 5 합정마트 입구 옆</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1326-9260</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>약수터</t>
+          <t>신조이자카야</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 연희로1길 36 지1층 우측</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '23:30 라스트오더'], ['목', '17:00 - 01:00', '23:30 라스트오더'], ['금', '17:00 - 02:00', '00:30 라스트오더'], ['토', '17:00 - 02:00', '00:30 라스트오더'], ['일', '17:00 - 01:00', '23:30 라스트오더'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>02-3144-7110</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>모모</t>
+          <t>미드나잇 키친 연남점</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 동교로32길 5 1층</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '16:30 - 02:00', '00:30 라스트오더'], ['수', '16:30 - 02:00', '00:30 라스트오더'], ['목', '16:30 - 02:00', '00:30 라스트오더'], ['금', '16:30 - 02:00', '00:30 라스트오더'], ['토', '15:30 - 02:00', '00:30 라스트오더'], ['일', '15:30 - 02:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 12월11일 일요일 매장 깜짝휴무']]</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1339-9633</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>미향언니포장마차</t>
+          <t>사쿠라테이엔 합정점</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 동교로32길 5 1층</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1339-9633</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>용용선생 홍대점</t>
+          <t>인사동노가리 홍대점</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 어울마당로 136-16 1층 인사동노가리</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>010-5599-0931</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>다노</t>
+          <t>달빛부엌</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7774,61 +7774,61 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 동교로46길 34 . 지층동</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '17:30 - 01:00'], ['토', '17:30 - 01:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['- 휴무일 인스타그램 참고 @moonkitchen1234'], ['식신로드1 203회, 14.10.11.', '2014년 10월 11일', ' 3종모둠튀김/돼지고기바질볶음']]</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>02-322-3559</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>당인리극장</t>
+          <t>큐슈방</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 독막로3길 18 2층 201호</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '16:00 - 24:00', '23:00 라스트오더'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일(7/16)', '휴무'], ['월', '정기휴무 (매주 월요일)'], ['접기']]</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1320-1314</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>시바카야 라카세</t>
+          <t>주미담 홍대점</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7838,93 +7838,93 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 와우산로17길 10 1층 주미담 홍대점</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '17:30 - 03:00']]</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>010-6261-2512</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>기대 연남</t>
+          <t>미나리</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '11:50에 라스트오더', '11시 50분에 라스트오더'], ['화', '17:00 - 12:30', '11:50 라스트오더'], ['수', '17:00 - 12:30', '11:50 라스트오더'], ['목', '17:00 - 12:30', '11:50 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더'], ['일', '17:00 - 12:30', '11:50 라스트오더'], ['월', '17:00 - 12:30', '11:50 라스트오더']]</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>010-9585-7805</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>호프마당</t>
+          <t>넨네</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 잔다리로3안길 27 B03호</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1347-9339</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>느린마을양조장 홍대점</t>
+          <t>노래타운 세븐플로어 홍대점</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7934,29 +7934,29 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 양화로 133 서교타워 지하1층 B102</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['화', '18:00 - 05:00'], ['수', '18:00 - 05:00'], ['목', '18:00 - 05:00'], ['금', '18:00 - 06:00'], ['토', '18:00 - 06:00'], ['일', '18:00 - 05:00'], ['월', '18:00 - 05:00'], ['- 연중무휴 영업합니다']]</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1489-4588</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>소주방</t>
+          <t>어른이대공원</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7966,98 +7966,98 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 양화로 133 서교타워 지하1층 B102</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1489-4588</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>연남슈퍼</t>
+          <t>이끔</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 동교로46길 24-2 2층 이끔</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절10:00 - 20:00']]</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>010-4169-6302</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>얼맥당 홍대카페거리점</t>
+          <t>쿄식탁</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
+          <t>서울 마포구 독막로 67-9 1층</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월(7/17)', '제헌절17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>02-322-4742</t>
+          <t>0507-1323-4066</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>애주당 연남점</t>
+          <t>해달밥술</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['월', '11:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8084,12 +8084,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>범맥주 홍대점</t>
+          <t>더뷰 합정</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8116,32 +8116,608 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
+          <t>자개장</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로15길 3-13 1층</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['화', '18:00 - 04:00'], ['수', '18:00 - 04:00'], ['목', '18:00 - 04:00'], ['금', '19:00 - 06:00'], ['토', '19:00 - 06:00'], ['일', '18:00 - 02:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0507-1375-3690</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>주문포차</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로15길 40 b01호</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0507-1335-5618</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>장농속</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 22</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '14:00 - 01:00'], ['일', '14:00 - 01:00'], ['월(7/17)', '제헌절14:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>070-4065-6212</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>모모</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 242-6</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 02:00'], ['월', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0507-1369-9781</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>약수터</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 242-6</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0507-1369-9781</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>미향언니포장마차</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 18 서교동 331-8 1층 미향언니포장마차</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>용용선생 홍대점</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 18 서교동 331-8 1층 미향언니포장마차</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 04:00', '03:00 라스트오더'], ['토', '17:00 - 04:00', '03:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>02-336-3996</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>당인리극장</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 21 2층 당인리극장</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 04:00', '03:00 라스트오더'], ['토', '18:00 - 04:00', '03:00 라스트오더'], ['일', '18:00 - 02:00', '01:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 법정 공휴일 전날은 영업 합니다']]</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>070-4065-6602</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>다노</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 21 2층 당인리극장</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>070-4065-6602</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>시바카야 라카세</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로9길 3 1층 좌측</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:15에 라스트오더', '1시 15분에 라스트오더'], ['화', '18:00 - 02:00', '01:15 라스트오더'], ['수', '18:00 - 02:00', '01:15 라스트오더'], ['목', '18:00 - 02:00', '01:15 라스트오더'], ['금', '18:00 - 04:00', '03:15 라스트오더'], ['토', '18:00 - 04:00', '03:15 라스트오더'], ['일', '17:00 - 01:00', '00:15 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 5월29일 ,6월5일 영업합니다.']]</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0507-1357-4442</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>기대 연남</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-9 9 라온오레 1층</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '13:00 - 01:00', '00:00 라스트오더'], ['수', '13:00 - 01:00', '00:00 라스트오더'], ['목', '13:00 - 01:00', '00:00 라스트오더'], ['금', '13:00 - 01:00', '00:00 라스트오더'], ['토', '13:00 - 01:00', '00:00 라스트오더'], ['일', '13:00 - 01:00', '00:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0507-1305-1494</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>느린마을양조장 홍대점</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-9 9 라온오레 1층</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0507-1305-1494</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>연남슈퍼</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로 29-1 1층 전체 연남슈퍼</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 03:00', '02:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0507-1305-1173</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>소주방</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로 29-1 1층 전체 연남슈퍼</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0507-1305-1173</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>호프마당</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로15안길 28</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['매일', '16:30 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>02-324-0281</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>얼맥당 홍대카페거리점</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로15안길 28</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>02-324-0281</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>애주당 연남점</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 27-5 1층</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['화', '17:00 - 23:00', '22:00 라스트오더'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['일', '16:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>02-6080-1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>치치 상수점</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>서울 마포구 동교로30길 17-1 지층</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00'], ['일', '16:00 - 24:00'], ['굿모닝대한민국 638회, 13.11.06.', '2013년 11월 6일', ' ']]</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>02-322-4742</t>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 71</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:30 - 04:00', '03:00 라스트오더'], ['목', '17:30 - 04:00', '03:00 라스트오더'], ['금', '17:30 - 04:00', '03:00 라스트오더'], ['토', '17:30 - 04:00', '03:00 라스트오더'], ['일', '17:30 - 04:00', '03:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 매장상황에 따라 주말 조기마감할수있습니다!'], ['식신로드1 129회, 13.05.11.', '2013년 5월 11일', ' 가지튀김/왕새우튀김']]</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>010-9194-9943</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>여의주점</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 71</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기'], [''], ['식신로드1 129회, 13.05.11.', '2013년 5월 11일', ' 가지튀김/왕새우튀김']]</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>010-9194-9943</t>
         </is>
       </c>
     </row>
